--- a/TestData/OpenCart_LoginData.xlsx
+++ b/TestData/OpenCart_LoginData.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D801E66-00FE-4E2D-B67B-8E4153714004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshit bisht\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC144A92-D9C6-4315-AD5F-5072612D49A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,17 +470,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -497,7 +502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -505,10 +510,10 @@
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -519,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -530,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/TestData/OpenCart_LoginData.xlsx
+++ b/TestData/OpenCart_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshit bisht\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC144A92-D9C6-4315-AD5F-5072612D49A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208ECCE4-234F-4FCC-88C6-C0C9ACDC2EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
